--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value591.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value591.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.520435790555372</v>
+        <v>1.082572221755981</v>
       </c>
       <c r="B1">
-        <v>1.610477406802749</v>
+        <v>1.864029288291931</v>
       </c>
       <c r="C1">
-        <v>1.643169835571638</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.145437677052287</v>
+        <v>2.031523704528809</v>
       </c>
       <c r="E1">
-        <v>1.830030052112138</v>
+        <v>1.145656108856201</v>
       </c>
     </row>
   </sheetData>
